--- a/teaching/traditional_assets/database/data/saint_lucia/saint_lucia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/saint_lucia/saint_lucia_investments_asset_management.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.03248587570621469</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03248587570621469</v>
       </c>
       <c r="I2">
-        <v>0.1375799194885153</v>
+        <v>1.297316384180791</v>
       </c>
       <c r="J2">
-        <v>0.1371022114347357</v>
+        <v>1.29353412067006</v>
       </c>
       <c r="K2">
-        <v>-0.394</v>
+        <v>-12.77</v>
       </c>
       <c r="L2">
-        <v>-0.0932986028889415</v>
+        <v>1.503060263653484</v>
       </c>
       <c r="M2">
-        <v>0.838</v>
+        <v>0.731</v>
       </c>
       <c r="N2">
-        <v>0.005895181146676046</v>
+        <v>0.00753841394245643</v>
       </c>
       <c r="O2">
-        <v>-2.126903553299492</v>
+        <v>-0.0572435395458105</v>
       </c>
       <c r="P2">
-        <v>0.838</v>
+        <v>0.731</v>
       </c>
       <c r="Q2">
-        <v>0.005895181146676046</v>
+        <v>0.00753841394245643</v>
       </c>
       <c r="R2">
-        <v>-2.126903553299492</v>
+        <v>-0.0572435395458105</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.939</v>
+        <v>4.34</v>
       </c>
       <c r="V2">
-        <v>0.02067534294759057</v>
+        <v>0.04475611013715582</v>
       </c>
       <c r="W2">
-        <v>0.01172690763052209</v>
+        <v>-0.04960317460317461</v>
       </c>
       <c r="X2">
-        <v>0.08379574528915004</v>
+        <v>0.06175660787539299</v>
       </c>
       <c r="Y2">
-        <v>-0.07206883765862795</v>
+        <v>-0.1113597824785676</v>
       </c>
       <c r="Z2">
-        <v>0.0271329533991686</v>
+        <v>-0.0470922111611201</v>
       </c>
       <c r="AA2">
-        <v>0.01249475890985325</v>
+        <v>-0.04583476566976052</v>
       </c>
       <c r="AB2">
-        <v>0.0813374035047793</v>
+        <v>0.05893305391276064</v>
       </c>
       <c r="AC2">
-        <v>-0.06790875135301638</v>
+        <v>-0.1035452081556093</v>
       </c>
       <c r="AD2">
-        <v>20.68</v>
+        <v>22.22</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>20.68</v>
+        <v>22.22</v>
       </c>
       <c r="AG2">
-        <v>17.741</v>
+        <v>17.88</v>
       </c>
       <c r="AH2">
-        <v>0.1270036234109194</v>
+        <v>0.1864250356573538</v>
       </c>
       <c r="AI2">
-        <v>0.1127897463866921</v>
+        <v>0.1773768659695058</v>
       </c>
       <c r="AJ2">
-        <v>0.110956839346805</v>
+        <v>0.1556813234653896</v>
       </c>
       <c r="AK2">
-        <v>0.09833657592940563</v>
+        <v>0.1478541304887125</v>
       </c>
       <c r="AL2">
-        <v>1.245</v>
+        <v>1.861</v>
       </c>
       <c r="AM2">
-        <v>1.245</v>
+        <v>1.861</v>
       </c>
       <c r="AO2">
-        <v>0.4666666666666667</v>
+        <v>-5.922622246104244</v>
       </c>
       <c r="AQ2">
-        <v>0.4666666666666667</v>
+        <v>-5.922622246104244</v>
       </c>
     </row>
     <row r="3">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6468305304010349</v>
+        <v>0.6872770511296076</v>
       </c>
       <c r="J3">
-        <v>0.6400927123760242</v>
+        <v>0.6812658815861999</v>
       </c>
       <c r="K3">
-        <v>0.474</v>
+        <v>0.68</v>
       </c>
       <c r="L3">
-        <v>0.6131953428201811</v>
+        <v>0.8085612366230679</v>
       </c>
       <c r="M3">
-        <v>0.264</v>
+        <v>0.205</v>
       </c>
       <c r="N3">
-        <v>0.02764397905759162</v>
+        <v>0.02638352638352638</v>
       </c>
       <c r="O3">
-        <v>0.5569620253164558</v>
+        <v>0.3014705882352941</v>
       </c>
       <c r="P3">
-        <v>0.264</v>
+        <v>0.205</v>
       </c>
       <c r="Q3">
-        <v>0.02764397905759162</v>
+        <v>0.02638352638352638</v>
       </c>
       <c r="R3">
-        <v>0.5569620253164558</v>
+        <v>0.3014705882352941</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,67 +755,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.05</v>
+        <v>0.008</v>
       </c>
       <c r="V3">
-        <v>0.005235602094240838</v>
+        <v>0.00102960102960103</v>
       </c>
       <c r="W3">
-        <v>0.06899563318777292</v>
+        <v>0.07497243660418963</v>
       </c>
       <c r="X3">
-        <v>0.0888332228250103</v>
+        <v>0.06857950216002676</v>
       </c>
       <c r="Y3">
-        <v>-0.01983758963723738</v>
+        <v>0.006392934444162876</v>
       </c>
       <c r="Z3">
-        <v>0.08411316648531013</v>
+        <v>0.07344978165938865</v>
       </c>
       <c r="AA3">
-        <v>0.05384022488211825</v>
+        <v>0.0500388302544973</v>
       </c>
       <c r="AB3">
-        <v>0.08377638073943289</v>
+        <v>0.06212199305859818</v>
       </c>
       <c r="AC3">
-        <v>-0.02993615585731463</v>
+        <v>-0.01208316280410087</v>
       </c>
       <c r="AD3">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="AG3">
-        <v>2.38</v>
+        <v>3.202</v>
       </c>
       <c r="AH3">
-        <v>0.2028380634390651</v>
+        <v>0.2923497267759563</v>
       </c>
       <c r="AI3">
-        <v>0.211304347826087</v>
+        <v>0.2706576728499157</v>
       </c>
       <c r="AJ3">
-        <v>0.1994970662196144</v>
+        <v>0.2918337586584032</v>
       </c>
       <c r="AK3">
-        <v>0.2078602620087336</v>
+        <v>0.2701653729328383</v>
       </c>
       <c r="AL3">
-        <v>0.023</v>
+        <v>0.185</v>
       </c>
       <c r="AM3">
-        <v>0.023</v>
+        <v>0.185</v>
       </c>
       <c r="AO3">
-        <v>21.73913043478261</v>
+        <v>3.124324324324324</v>
       </c>
       <c r="AQ3">
-        <v>21.73913043478261</v>
+        <v>3.124324324324324</v>
       </c>
     </row>
     <row r="4">
@@ -835,22 +835,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4">
-        <v>0.2504201680672269</v>
+        <v>2.044293015332198</v>
       </c>
       <c r="J4">
-        <v>0.2504201680672269</v>
+        <v>2.044293015332198</v>
       </c>
       <c r="K4">
-        <v>0.292</v>
+        <v>-1.25</v>
       </c>
       <c r="L4">
-        <v>0.2453781512605042</v>
+        <v>2.129471890971039</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -859,7 +859,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -868,73 +868,73 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.969</v>
+        <v>0.002</v>
       </c>
       <c r="V4">
-        <v>0.057</v>
+        <v>9.569377990430622e-05</v>
       </c>
       <c r="W4">
-        <v>0.01172690763052209</v>
+        <v>-0.04960317460317461</v>
       </c>
       <c r="X4">
-        <v>0.08262803094326968</v>
+        <v>0.05959463105643872</v>
       </c>
       <c r="Y4">
-        <v>-0.07090112331274759</v>
+        <v>-0.1091978056596133</v>
       </c>
       <c r="Z4">
-        <v>0.04989517819706499</v>
+        <v>-0.02242083954012452</v>
       </c>
       <c r="AA4">
-        <v>0.01249475890985325</v>
+        <v>-0.04583476566976052</v>
       </c>
       <c r="AB4">
-        <v>0.08040351026286964</v>
+        <v>0.05771044248584881</v>
       </c>
       <c r="AC4">
-        <v>-0.06790875135301638</v>
+        <v>-0.1035452081556093</v>
       </c>
       <c r="AD4">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="AG4">
-        <v>0.981</v>
+        <v>3.508</v>
       </c>
       <c r="AH4">
-        <v>0.1029023746701847</v>
+        <v>0.1437935272429332</v>
       </c>
       <c r="AI4">
-        <v>0.0718232044198895</v>
+        <v>0.1275899672846238</v>
       </c>
       <c r="AJ4">
-        <v>0.05455758856570824</v>
+        <v>0.1437233693870862</v>
       </c>
       <c r="AK4">
-        <v>0.03746992093502922</v>
+        <v>0.1275265377344773</v>
       </c>
       <c r="AL4">
-        <v>0.012</v>
+        <v>0.326</v>
       </c>
       <c r="AM4">
-        <v>0.012</v>
+        <v>0.326</v>
       </c>
       <c r="AO4">
-        <v>24.83333333333333</v>
+        <v>-3.680981595092024</v>
       </c>
       <c r="AQ4">
-        <v>24.83333333333333</v>
+        <v>-3.680981595092024</v>
       </c>
     </row>
     <row r="5">
@@ -954,40 +954,40 @@
         </is>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.03154285714285714</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03154285714285714</v>
       </c>
       <c r="I5">
-        <v>-0.09601769911504425</v>
+        <v>1.188571428571429</v>
       </c>
       <c r="J5">
-        <v>-0.09601769911504425</v>
+        <v>1.188571428571429</v>
       </c>
       <c r="K5">
-        <v>-1.16</v>
+        <v>-12.2</v>
       </c>
       <c r="L5">
-        <v>-0.5132743362831859</v>
+        <v>1.394285714285714</v>
       </c>
       <c r="M5">
-        <v>0.574</v>
+        <v>0.526</v>
       </c>
       <c r="N5">
-        <v>0.004965397923875433</v>
+        <v>0.007701317715959005</v>
       </c>
       <c r="O5">
-        <v>-0.4948275862068965</v>
+        <v>-0.04311475409836066</v>
       </c>
       <c r="P5">
-        <v>0.574</v>
+        <v>0.526</v>
       </c>
       <c r="Q5">
-        <v>0.004965397923875433</v>
+        <v>0.007701317715959005</v>
       </c>
       <c r="R5">
-        <v>-0.4948275862068965</v>
+        <v>-0.04311475409836066</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -996,67 +996,67 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.92</v>
+        <v>4.33</v>
       </c>
       <c r="V5">
-        <v>0.01660899653979239</v>
+        <v>0.06339677891654466</v>
       </c>
       <c r="W5">
-        <v>-0.009965635738831614</v>
+        <v>-0.09501557632398754</v>
       </c>
       <c r="X5">
-        <v>0.08379574528915004</v>
+        <v>0.06175660787539299</v>
       </c>
       <c r="Y5">
-        <v>-0.09376138102798165</v>
+        <v>-0.1567721841993805</v>
       </c>
       <c r="Z5">
-        <v>0.018433781127397</v>
+        <v>-0.06128266365973062</v>
       </c>
       <c r="AA5">
-        <v>-0.001769969249842986</v>
+        <v>-0.07283882309270839</v>
       </c>
       <c r="AB5">
-        <v>0.0813374035047793</v>
+        <v>0.05893305391276064</v>
       </c>
       <c r="AC5">
-        <v>-0.08310737275462229</v>
+        <v>-0.131771877005469</v>
       </c>
       <c r="AD5">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="AG5">
-        <v>14.38</v>
+        <v>11.17</v>
       </c>
       <c r="AH5">
-        <v>0.1235784685367703</v>
+        <v>0.184964200477327</v>
       </c>
       <c r="AI5">
-        <v>0.1126468555632343</v>
+        <v>0.1804423748544819</v>
       </c>
       <c r="AJ5">
-        <v>0.1106324049853824</v>
+        <v>0.1405561847237951</v>
       </c>
       <c r="AK5">
-        <v>0.1007143857683149</v>
+        <v>0.1369375996076989</v>
       </c>
       <c r="AL5">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AM5">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AO5">
-        <v>-0.1793388429752066</v>
+        <v>-7.703703703703703</v>
       </c>
       <c r="AQ5">
-        <v>-0.1793388429752066</v>
+        <v>-7.703703703703703</v>
       </c>
     </row>
   </sheetData>
